--- a/new_classification_db/N14 - CANCELLED HEARING.xlsx
+++ b/new_classification_db/N14 - CANCELLED HEARING.xlsx
@@ -80,6 +80,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,11 +103,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,12 +192,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8724489795918"/>
-    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.2704081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
